--- a/tut05/output/0401ME05.xlsx
+++ b/tut05/output/0401ME05.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.897959183673469</v>
+        <v>8.9</v>
       </c>
       <c r="C6" t="n">
-        <v>8.886363636363637</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>9.553191489361701</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>9.571428571428571</v>
+        <v>9.57</v>
       </c>
       <c r="F6" t="n">
-        <v>9.608695652173912</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>9.869565217391305</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>9.9</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.897959183673469</v>
+        <v>8.9</v>
       </c>
       <c r="C8" t="n">
-        <v>8.89247311827957</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>9.114285714285714</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>9.232804232804233</v>
+        <v>9.23</v>
       </c>
       <c r="F8" t="n">
-        <v>9.306382978723404</v>
+        <v>9.31</v>
       </c>
       <c r="G8" t="n">
-        <v>9.398576512455517</v>
+        <v>9.4</v>
       </c>
       <c r="H8" t="n">
-        <v>9.461059190031152</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>9.504155124653739</v>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>
